--- a/study_of_fraudroid_in_major_markets.xlsx
+++ b/study_of_fraudroid_in_major_markets.xlsx
@@ -5,14 +5,14 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ad-fraud\fraudroid_github\experiment_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_workplace\Fraudroid\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1155" windowWidth="24960" windowHeight="13800" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1575" yWindow="1155" windowWidth="24960" windowHeight="13800" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ad-contained apps in markets" sheetId="1" r:id="rId1"/>
+    <sheet name="ad-contained apps" sheetId="9" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="5" sheetId="5" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
@@ -21,7 +21,11 @@
     <sheet name="adnetwork" sheetId="6" r:id="rId7"/>
     <sheet name="Distribution of ad network" sheetId="7" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +35,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="176">
+  <si>
+    <t>Baidu Application Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baidu Mobile Assistant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetEase Application Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sina App Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jifeng Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liqu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App Treasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUMAYI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Julur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haozhuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anfone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7BOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anfen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC Application Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PP Assistant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>360 Mobile Assistant</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +117,479 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Liqu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppKu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tvapk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop-window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overlap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-interaciton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overlap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8073f14e9d304ead0c89a859626c4fae</t>
+  </si>
+  <si>
+    <t>b1507db90bfe4be4bfacb4cebc7e4a07</t>
+  </si>
+  <si>
+    <t>b54bb86c65238723be6ecb1a101f49e6</t>
+  </si>
+  <si>
+    <t>b5933f4ef4430e05086fdf2704fc6d13</t>
+  </si>
+  <si>
+    <t>e9ecd0acb5a6acae4aa589af37945fe1</t>
+  </si>
+  <si>
+    <t>f598cc4347757b4a507963daa87caef4</t>
+  </si>
+  <si>
+    <t>d15a20b00fbe08d1f6008fec0edd3761</t>
+  </si>
+  <si>
+    <t>f3d905c3e67eddb2673381805a1e9a26</t>
+  </si>
+  <si>
+    <t>ebc95dd059152c02c51a223494e09750</t>
+  </si>
+  <si>
+    <t>f8c14b22193f68c219723a472d559e40</t>
+  </si>
+  <si>
+    <t>a39621d2bff09fe41c6a6f8a08a27cb3</t>
+  </si>
+  <si>
+    <t>f545f36db07e3115d8d838fff1055f8b</t>
+  </si>
+  <si>
+    <t>be7f19578b8f5bd8a796fb7cbfa907ad</t>
+  </si>
+  <si>
+    <t>beb03291cbdc658734e836ed41842b42</t>
+  </si>
+  <si>
+    <t>99e4addfa5adfc70a64675625b0e2dce</t>
+  </si>
+  <si>
+    <t>d899b1605c65856c7b841304f6a77e89</t>
+  </si>
+  <si>
+    <t>ea1a6c86d6f8dfaeac97ad5c4b2af1e3</t>
+  </si>
+  <si>
+    <t>d57838de5ba0b9457998f3417c8a7646</t>
+  </si>
+  <si>
+    <t>58233fe15835ebf29f36a2336d05dc9a</t>
+  </si>
+  <si>
+    <t>2061f5561fb034244ca4f29e28a61391</t>
+  </si>
+  <si>
+    <t>3999345ce2524c94d19c0db422ccc82f</t>
+  </si>
+  <si>
+    <t>598807cb8dbea2a404da1bcdf4b5a14c</t>
+  </si>
+  <si>
+    <t>e2d736f8e64969e6f325bf51b9f31080</t>
+  </si>
+  <si>
+    <t>4e18564d622881e45bb92188f0fa14b8</t>
+  </si>
+  <si>
+    <t>d9052dd18c5df86a008d388ca0e4cc8c</t>
+  </si>
+  <si>
+    <t>cd3910b81553b54a2d9eb0fffbbd37ec</t>
+  </si>
+  <si>
+    <t>61ae6adb65ef01be4659b66a80923ee0</t>
+  </si>
+  <si>
+    <t>b5f89ebdb0daaa4d3e1200d84f575a58</t>
+  </si>
+  <si>
+    <t>05367812f0775f1606ccb9e12107b530</t>
+  </si>
+  <si>
+    <t>e50d6a77691aa94f556b37067d384f2b</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Waps.b[ads,prv,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.kuguo.b[ads,rog,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Domob.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.AnZhi.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.kuguo.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.InMobi.a[ads,prv,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Admob.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Waps.c[ads,prv,opc]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.juzi.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.BaiduAd.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.vpon.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Dianjin.a[ads,prv,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.adwhirl.a[ads,prv,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Youmi.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.AdMogo.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Jumptap.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Waps.c[ads,prv,gen]</t>
+  </si>
+  <si>
+    <t>62de94b31fce0c15f97e853553feea7c</t>
+  </si>
+  <si>
+    <t>9333e0cf1e58830c9c3ab5f0d6adc07d</t>
+  </si>
+  <si>
+    <t>d0ce1cec2fc55efcf27d061bd5318f93</t>
+  </si>
+  <si>
+    <t>962df0341a7bfe254f6619d69b2363ca</t>
+  </si>
+  <si>
+    <t>b939a9ef0f22b49974da9d48c428c79f</t>
+  </si>
+  <si>
+    <t>57569d116cc57dc7bc0f11a1b968f756</t>
+  </si>
+  <si>
+    <t>427e7fc799ca05207ef99f768292753a</t>
+  </si>
+  <si>
+    <t>ebee261038f7805ff8dab90d0f39154b</t>
+  </si>
+  <si>
+    <t>890b4b82872c604c4edb24ecbaa6e5bb</t>
+  </si>
+  <si>
+    <t>d49b5e8eb17599c75080871a0df86d91</t>
+  </si>
+  <si>
+    <t>98dcbe00ef0887e3a80a1869b19ad9a5</t>
+  </si>
+  <si>
+    <t>9463769cbab6dc4a9f72cd77c7d6ad56</t>
+  </si>
+  <si>
+    <t>512f30a089449a1de0a353e25db8db42</t>
+  </si>
+  <si>
+    <t>a1f80586bca6bba7172227f1863a9176</t>
+  </si>
+  <si>
+    <t>22045d3d1ae0c1a2ae79d77b0fe4bdbf</t>
+  </si>
+  <si>
+    <t>AdWare/Android.anzhuan360.a[ads,rog,opc]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.BaiduAd.b[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Finefocus.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Finefocus.a[ads,opc]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.XiaomiAd.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>f078fd54346db81cf8c1beab4873bb4c</t>
+  </si>
+  <si>
+    <t>1d7fb10b2c34a7a7f1e820a4f9bca46d</t>
+  </si>
+  <si>
+    <t>da8cbeb2f2c6bd4ffd4b0dfd02d6881d</t>
+  </si>
+  <si>
+    <t>9f9f3e10a0cee64f7c72e0dd6657f81d</t>
+  </si>
+  <si>
+    <t>c15dd723fef120753933f96350e31932</t>
+  </si>
+  <si>
+    <t>d9952f462ca0dbb81c5288744209eafe</t>
+  </si>
+  <si>
+    <t>6aecaeccb9ca9ef7ff0e8f336db4e960</t>
+  </si>
+  <si>
+    <t>0ea2a1f79635faafd244f033f179dbf5</t>
+  </si>
+  <si>
+    <t>f97952d6eba7e5aa31abdc8b48c44c5a</t>
+  </si>
+  <si>
+    <t>8eb2f4aa646c144f4a4bbd77f27ab2a1</t>
+  </si>
+  <si>
+    <t>940d00da4571366b5d30f346602c5d0c</t>
+  </si>
+  <si>
+    <t>359ff3973e8cf44051cb6eb39e27c8ff</t>
+  </si>
+  <si>
+    <t>7a15fd2dc7164111137187227cfac37f</t>
+  </si>
+  <si>
+    <t>51dbad10559857f8bde2119b4ba550fe</t>
+  </si>
+  <si>
+    <t>aa12031212a69612a7c5b2e7077bb137</t>
+  </si>
+  <si>
+    <t>5760b8e3aa173cd9e73f34903a913788</t>
+  </si>
+  <si>
+    <t>b7fb86fc9785c8bf4d4d8ff80c4e675e</t>
+  </si>
+  <si>
+    <t>40a95f2a91f9b9d7c05f1d59fc476514</t>
+  </si>
+  <si>
+    <t>30b11ec893a8ee6356a7aedf8d3024e2</t>
+  </si>
+  <si>
+    <t>8d250ce3728fdd5c8321dbd51a9937bb</t>
+  </si>
+  <si>
+    <t>8bb93a6837fe0c904858bedbc388ed38</t>
+  </si>
+  <si>
+    <t>241887fc57aab9d5bf3dba76d37ab65a</t>
+  </si>
+  <si>
+    <t>02f14d4c8d6f915cb4d512df428a8710</t>
+  </si>
+  <si>
+    <t>a31acea3950ec638febb3cbde8525835</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Waps.a[ads,prv,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.adsmogo.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Mobile7.a[ads,prv,exp,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.AdView.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.mediav.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.yimob.b[ads,rog,gen]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.ninebox.a[ads,gen]</t>
+  </si>
+  <si>
+    <t>7c77004d6596b7e33ace08350917695c</t>
+  </si>
+  <si>
+    <t>4bbc15193621853c9dca0c8121de65d2</t>
+  </si>
+  <si>
+    <t>96a1e0ab2a6390006316f642e3d00dbc</t>
+  </si>
+  <si>
+    <t>AdWare/Android.lanjingke.a[ads,rog,opd]</t>
+  </si>
+  <si>
+    <t>AdWare/Android.Flurry.a[ads,prv,gen]</t>
+  </si>
+  <si>
+    <t>Youmi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yimob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiaomiAd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vpon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ninebox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mediav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanjingke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kugo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumptap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InMobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flurry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FineFocus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dianjin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaiduAd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anzhuan360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adwhirl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnZhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admogo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GooglePlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_free app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GooglePlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360 Mobile Assistant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NetEase Application Market</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,34 +602,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Liqu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>App Treasure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MUMAYI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AppKu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Julur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Huli</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Haozhuo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tvapk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7BOX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MM Market</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,500 +630,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UC Application Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PP Assistant</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>360 Mobile Assistant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baidu Application Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baidu Mobile Assistant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liqu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppKu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tvapk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>non-interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pop-window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hidden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overlap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>non-interaciton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overlap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8073f14e9d304ead0c89a859626c4fae</t>
-  </si>
-  <si>
-    <t>b1507db90bfe4be4bfacb4cebc7e4a07</t>
-  </si>
-  <si>
-    <t>b54bb86c65238723be6ecb1a101f49e6</t>
-  </si>
-  <si>
-    <t>b5933f4ef4430e05086fdf2704fc6d13</t>
-  </si>
-  <si>
-    <t>e9ecd0acb5a6acae4aa589af37945fe1</t>
-  </si>
-  <si>
-    <t>f598cc4347757b4a507963daa87caef4</t>
-  </si>
-  <si>
-    <t>d15a20b00fbe08d1f6008fec0edd3761</t>
-  </si>
-  <si>
-    <t>f3d905c3e67eddb2673381805a1e9a26</t>
-  </si>
-  <si>
-    <t>ebc95dd059152c02c51a223494e09750</t>
-  </si>
-  <si>
-    <t>f8c14b22193f68c219723a472d559e40</t>
-  </si>
-  <si>
-    <t>a39621d2bff09fe41c6a6f8a08a27cb3</t>
-  </si>
-  <si>
-    <t>f545f36db07e3115d8d838fff1055f8b</t>
-  </si>
-  <si>
-    <t>be7f19578b8f5bd8a796fb7cbfa907ad</t>
-  </si>
-  <si>
-    <t>beb03291cbdc658734e836ed41842b42</t>
-  </si>
-  <si>
-    <t>99e4addfa5adfc70a64675625b0e2dce</t>
-  </si>
-  <si>
-    <t>d899b1605c65856c7b841304f6a77e89</t>
-  </si>
-  <si>
-    <t>ea1a6c86d6f8dfaeac97ad5c4b2af1e3</t>
-  </si>
-  <si>
-    <t>d57838de5ba0b9457998f3417c8a7646</t>
-  </si>
-  <si>
-    <t>58233fe15835ebf29f36a2336d05dc9a</t>
-  </si>
-  <si>
-    <t>2061f5561fb034244ca4f29e28a61391</t>
-  </si>
-  <si>
-    <t>3999345ce2524c94d19c0db422ccc82f</t>
-  </si>
-  <si>
-    <t>598807cb8dbea2a404da1bcdf4b5a14c</t>
-  </si>
-  <si>
-    <t>e2d736f8e64969e6f325bf51b9f31080</t>
-  </si>
-  <si>
-    <t>4e18564d622881e45bb92188f0fa14b8</t>
-  </si>
-  <si>
-    <t>d9052dd18c5df86a008d388ca0e4cc8c</t>
-  </si>
-  <si>
-    <t>cd3910b81553b54a2d9eb0fffbbd37ec</t>
-  </si>
-  <si>
-    <t>61ae6adb65ef01be4659b66a80923ee0</t>
-  </si>
-  <si>
-    <t>b5f89ebdb0daaa4d3e1200d84f575a58</t>
-  </si>
-  <si>
-    <t>05367812f0775f1606ccb9e12107b530</t>
-  </si>
-  <si>
-    <t>e50d6a77691aa94f556b37067d384f2b</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Waps.b[ads,prv,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.kuguo.b[ads,rog,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Domob.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.AnZhi.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.kuguo.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.InMobi.a[ads,prv,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Admob.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Waps.c[ads,prv,opc]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.juzi.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.BaiduAd.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.vpon.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Dianjin.a[ads,prv,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.adwhirl.a[ads,prv,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Youmi.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.AdMogo.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Jumptap.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Waps.c[ads,prv,gen]</t>
-  </si>
-  <si>
-    <t>62de94b31fce0c15f97e853553feea7c</t>
-  </si>
-  <si>
-    <t>9333e0cf1e58830c9c3ab5f0d6adc07d</t>
-  </si>
-  <si>
-    <t>d0ce1cec2fc55efcf27d061bd5318f93</t>
-  </si>
-  <si>
-    <t>962df0341a7bfe254f6619d69b2363ca</t>
-  </si>
-  <si>
-    <t>b939a9ef0f22b49974da9d48c428c79f</t>
-  </si>
-  <si>
-    <t>57569d116cc57dc7bc0f11a1b968f756</t>
-  </si>
-  <si>
-    <t>427e7fc799ca05207ef99f768292753a</t>
-  </si>
-  <si>
-    <t>ebee261038f7805ff8dab90d0f39154b</t>
-  </si>
-  <si>
-    <t>890b4b82872c604c4edb24ecbaa6e5bb</t>
-  </si>
-  <si>
-    <t>d49b5e8eb17599c75080871a0df86d91</t>
-  </si>
-  <si>
-    <t>98dcbe00ef0887e3a80a1869b19ad9a5</t>
-  </si>
-  <si>
-    <t>9463769cbab6dc4a9f72cd77c7d6ad56</t>
-  </si>
-  <si>
-    <t>512f30a089449a1de0a353e25db8db42</t>
-  </si>
-  <si>
-    <t>a1f80586bca6bba7172227f1863a9176</t>
-  </si>
-  <si>
-    <t>22045d3d1ae0c1a2ae79d77b0fe4bdbf</t>
-  </si>
-  <si>
-    <t>AdWare/Android.anzhuan360.a[ads,rog,opc]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.BaiduAd.b[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Finefocus.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Finefocus.a[ads,opc]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.XiaomiAd.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>f078fd54346db81cf8c1beab4873bb4c</t>
-  </si>
-  <si>
-    <t>1d7fb10b2c34a7a7f1e820a4f9bca46d</t>
-  </si>
-  <si>
-    <t>da8cbeb2f2c6bd4ffd4b0dfd02d6881d</t>
-  </si>
-  <si>
-    <t>9f9f3e10a0cee64f7c72e0dd6657f81d</t>
-  </si>
-  <si>
-    <t>c15dd723fef120753933f96350e31932</t>
-  </si>
-  <si>
-    <t>d9952f462ca0dbb81c5288744209eafe</t>
-  </si>
-  <si>
-    <t>6aecaeccb9ca9ef7ff0e8f336db4e960</t>
-  </si>
-  <si>
-    <t>0ea2a1f79635faafd244f033f179dbf5</t>
-  </si>
-  <si>
-    <t>f97952d6eba7e5aa31abdc8b48c44c5a</t>
-  </si>
-  <si>
-    <t>8eb2f4aa646c144f4a4bbd77f27ab2a1</t>
-  </si>
-  <si>
-    <t>940d00da4571366b5d30f346602c5d0c</t>
-  </si>
-  <si>
-    <t>359ff3973e8cf44051cb6eb39e27c8ff</t>
-  </si>
-  <si>
-    <t>7a15fd2dc7164111137187227cfac37f</t>
-  </si>
-  <si>
-    <t>51dbad10559857f8bde2119b4ba550fe</t>
-  </si>
-  <si>
-    <t>aa12031212a69612a7c5b2e7077bb137</t>
-  </si>
-  <si>
-    <t>5760b8e3aa173cd9e73f34903a913788</t>
-  </si>
-  <si>
-    <t>b7fb86fc9785c8bf4d4d8ff80c4e675e</t>
-  </si>
-  <si>
-    <t>40a95f2a91f9b9d7c05f1d59fc476514</t>
-  </si>
-  <si>
-    <t>30b11ec893a8ee6356a7aedf8d3024e2</t>
-  </si>
-  <si>
-    <t>8d250ce3728fdd5c8321dbd51a9937bb</t>
-  </si>
-  <si>
-    <t>8bb93a6837fe0c904858bedbc388ed38</t>
-  </si>
-  <si>
-    <t>241887fc57aab9d5bf3dba76d37ab65a</t>
-  </si>
-  <si>
-    <t>02f14d4c8d6f915cb4d512df428a8710</t>
-  </si>
-  <si>
-    <t>a31acea3950ec638febb3cbde8525835</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Waps.a[ads,prv,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.adsmogo.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Mobile7.a[ads,prv,exp,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.AdView.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.mediav.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.yimob.b[ads,rog,gen]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.ninebox.a[ads,gen]</t>
-  </si>
-  <si>
-    <t>7c77004d6596b7e33ace08350917695c</t>
-  </si>
-  <si>
-    <t>4bbc15193621853c9dca0c8121de65d2</t>
-  </si>
-  <si>
-    <t>96a1e0ab2a6390006316f642e3d00dbc</t>
-  </si>
-  <si>
-    <t>AdWare/Android.lanjingke.a[ads,rog,opd]</t>
-  </si>
-  <si>
-    <t>AdWare/Android.Flurry.a[ads,prv,gen]</t>
-  </si>
-  <si>
-    <t>Youmi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yimob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XiaomiAd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vpon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ninebox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mediav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lanjingke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kugo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>juzi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jumptap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InMobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flurry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FineFocus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Domob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dianjin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaiduAd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anzhuan360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adwhirl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnZhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admogo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GooglePlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad-contained app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GooglePlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad-free apps</t>
+    <t>ad_contained app</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,38 +724,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -729,6 +734,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]工作表1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ad-contained app</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -739,68 +755,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'ad-contained apps in markets'!$A$2:$A$22</c:f>
+              <c:f>[1]工作表1!$A$2:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -871,7 +828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ad-contained apps in markets'!$B$2:$B$22</c:f>
+              <c:f>[1]工作表1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -945,6 +902,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]工作表1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ad_free app</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -955,68 +923,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'ad-contained apps in markets'!$A$2:$A$22</c:f>
+              <c:f>[1]工作表1!$A$2:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -1087,81 +996,80 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ad-contained apps in markets'!$C$2:$C$22</c:f>
+              <c:f>[1]工作表1!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>28126</c:v>
+                  <c:v>18186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10471</c:v>
+                  <c:v>6974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7891</c:v>
+                  <c:v>5044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4167</c:v>
+                  <c:v>2299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3105</c:v>
+                  <c:v>1949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5634</c:v>
+                  <c:v>3277</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1287</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1578</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1333</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1572</c:v>
+                  <c:v>861</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1270</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1362</c:v>
+                  <c:v>781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2690</c:v>
+                  <c:v>1819</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1072</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1474</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1121</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1206</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1350</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1213</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1057</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1560</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1169,11 +1077,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1631472768"/>
-        <c:axId val="1631460256"/>
+        <c:axId val="1115800704"/>
+        <c:axId val="1115803968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1631472768"/>
+        <c:axId val="1115800704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,7 +1124,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631460256"/>
+        <c:crossAx val="1115803968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1224,7 +1132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1631460256"/>
+        <c:axId val="1115803968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,7 +1183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631472768"/>
+        <c:crossAx val="1115800704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1651,11 +1559,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1631465696"/>
-        <c:axId val="1631462976"/>
+        <c:axId val="912289952"/>
+        <c:axId val="912285056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1631465696"/>
+        <c:axId val="912289952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1606,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631462976"/>
+        <c:crossAx val="912285056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1631462976"/>
+        <c:axId val="912285056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1665,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631465696"/>
+        <c:crossAx val="912289952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1903,7 +1811,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2101,11 +2008,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1631464608"/>
-        <c:axId val="1631473312"/>
+        <c:axId val="912287232"/>
+        <c:axId val="912297024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1631464608"/>
+        <c:axId val="912287232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +2055,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631473312"/>
+        <c:crossAx val="912297024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2156,7 +2063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1631473312"/>
+        <c:axId val="912297024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2114,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631464608"/>
+        <c:crossAx val="912287232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2345,7 +2252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2435,7 +2341,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2607,11 +2512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="1631468960"/>
-        <c:axId val="1631467328"/>
+        <c:axId val="912291584"/>
+        <c:axId val="912293216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1631468960"/>
+        <c:axId val="912291584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2573,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631467328"/>
+        <c:crossAx val="912293216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2676,7 +2581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1631467328"/>
+        <c:axId val="912293216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,7 +2591,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1631468960"/>
+        <c:crossAx val="912291584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2828,7 +2733,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3031,11 +2935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1631470048"/>
-        <c:axId val="1631470592"/>
+        <c:axId val="912285600"/>
+        <c:axId val="912287776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1631470048"/>
+        <c:axId val="912285600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,7 +2982,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631470592"/>
+        <c:crossAx val="912287776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3086,7 +2990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1631470592"/>
+        <c:axId val="912287776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1631470048"/>
+        <c:crossAx val="912285600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3370,11 +3274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1796898784"/>
-        <c:axId val="1796888448"/>
+        <c:axId val="1022171872"/>
+        <c:axId val="912288864"/>
       </c:barChart>
       <c:valAx>
-        <c:axId val="1796888448"/>
+        <c:axId val="912288864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,12 +3329,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1796898784"/>
+        <c:crossAx val="1022171872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1796898784"/>
+        <c:axId val="1022171872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,7 +3377,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1796888448"/>
+        <c:crossAx val="912288864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3606,7 +3510,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3725,11 +3628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1796890624"/>
-        <c:axId val="1796900960"/>
+        <c:axId val="1022177312"/>
+        <c:axId val="1022183296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1796890624"/>
+        <c:axId val="1022177312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +3675,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1796900960"/>
+        <c:crossAx val="1022183296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3780,7 +3683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1796900960"/>
+        <c:axId val="1022183296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3831,7 +3734,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1796890624"/>
+        <c:crossAx val="1022177312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3956,7 +3859,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4046,7 +3948,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4136,11 +4037,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1796895520"/>
-        <c:axId val="1796891168"/>
+        <c:axId val="1022172960"/>
+        <c:axId val="1022173504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1796895520"/>
+        <c:axId val="1022172960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,7 +4084,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1796891168"/>
+        <c:crossAx val="1022173504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4191,7 +4092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1796891168"/>
+        <c:axId val="1022173504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4242,7 +4143,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1796895520"/>
+        <c:crossAx val="1022172960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4380,7 +4281,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4595,11 +4495,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1796892800"/>
-        <c:axId val="1796902592"/>
+        <c:axId val="1022178400"/>
+        <c:axId val="1022183840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1796892800"/>
+        <c:axId val="1022178400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4642,7 +4542,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1796902592"/>
+        <c:crossAx val="1022183840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4650,7 +4550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1796902592"/>
+        <c:axId val="1022183840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,7 +4601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1796892800"/>
+        <c:crossAx val="1022178400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9668,21 +9568,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311258</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>784225</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9969,6 +9871,273 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="工作表1"/>
+      <sheetName val="工作表2"/>
+      <sheetName val="工作表5"/>
+      <sheetName val="工作表4"/>
+      <sheetName val="工作表3"/>
+      <sheetName val="工作表8"/>
+      <sheetName val="工作表6"/>
+      <sheetName val="工作表7"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>ad-contained app</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>ad_free app</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>GooglePlay</v>
+          </cell>
+          <cell r="B2">
+            <v>9940</v>
+          </cell>
+          <cell r="C2">
+            <v>18186</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>360 Mobile Assistant</v>
+          </cell>
+          <cell r="B3">
+            <v>3497</v>
+          </cell>
+          <cell r="C3">
+            <v>6974</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Baidu Application Market</v>
+          </cell>
+          <cell r="B4">
+            <v>2847</v>
+          </cell>
+          <cell r="C4">
+            <v>5044</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Baidu Mobile Assistant</v>
+          </cell>
+          <cell r="B5">
+            <v>1868</v>
+          </cell>
+          <cell r="C5">
+            <v>2299</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>NetEase Application Market</v>
+          </cell>
+          <cell r="B6">
+            <v>1156</v>
+          </cell>
+          <cell r="C6">
+            <v>1949</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Sina App Center</v>
+          </cell>
+          <cell r="B7">
+            <v>2357</v>
+          </cell>
+          <cell r="C7">
+            <v>3277</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Jifeng Market</v>
+          </cell>
+          <cell r="B8">
+            <v>596</v>
+          </cell>
+          <cell r="C8">
+            <v>691</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Liqu</v>
+          </cell>
+          <cell r="B9">
+            <v>751</v>
+          </cell>
+          <cell r="C9">
+            <v>827</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>App Treasure</v>
+          </cell>
+          <cell r="B10">
+            <v>643</v>
+          </cell>
+          <cell r="C10">
+            <v>690</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>MUMAYI</v>
+          </cell>
+          <cell r="B11">
+            <v>711</v>
+          </cell>
+          <cell r="C11">
+            <v>861</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>AppKu</v>
+          </cell>
+          <cell r="B12">
+            <v>588</v>
+          </cell>
+          <cell r="C12">
+            <v>682</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Julur</v>
+          </cell>
+          <cell r="B13">
+            <v>581</v>
+          </cell>
+          <cell r="C13">
+            <v>781</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Huli</v>
+          </cell>
+          <cell r="B14">
+            <v>871</v>
+          </cell>
+          <cell r="C14">
+            <v>1819</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Haozhuo</v>
+          </cell>
+          <cell r="B15">
+            <v>597</v>
+          </cell>
+          <cell r="C15">
+            <v>475</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>tvapk</v>
+          </cell>
+          <cell r="B16">
+            <v>634</v>
+          </cell>
+          <cell r="C16">
+            <v>840</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>anfone</v>
+          </cell>
+          <cell r="B17">
+            <v>491</v>
+          </cell>
+          <cell r="C17">
+            <v>630</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>7BOX</v>
+          </cell>
+          <cell r="B18">
+            <v>706</v>
+          </cell>
+          <cell r="C18">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>MM Market</v>
+          </cell>
+          <cell r="B19">
+            <v>478</v>
+          </cell>
+          <cell r="C19">
+            <v>872</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Anfen</v>
+          </cell>
+          <cell r="B20">
+            <v>562</v>
+          </cell>
+          <cell r="C20">
+            <v>651</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>UC Application Market</v>
+          </cell>
+          <cell r="B21">
+            <v>551</v>
+          </cell>
+          <cell r="C21">
+            <v>506</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>PP Assistant</v>
+          </cell>
+          <cell r="B22">
+            <v>868</v>
+          </cell>
+          <cell r="C22">
+            <v>692</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -10232,271 +10401,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2">
         <v>9940</v>
       </c>
       <c r="C2">
-        <v>28126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>18186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>3497</v>
       </c>
       <c r="C3">
-        <v>10471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>6974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>2847</v>
       </c>
       <c r="C4">
-        <v>7891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1868</v>
       </c>
       <c r="C5">
-        <v>4167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B6">
         <v>1156</v>
       </c>
       <c r="C6">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="B7">
         <v>2357</v>
       </c>
       <c r="C7">
-        <v>5634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="B8">
         <v>596</v>
       </c>
       <c r="C8">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>751</v>
       </c>
       <c r="C9">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="B10">
         <v>643</v>
       </c>
       <c r="C10">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>711</v>
       </c>
       <c r="C11">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="B12">
         <v>588</v>
       </c>
       <c r="C12">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>581</v>
       </c>
       <c r="C13">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="B14">
         <v>871</v>
       </c>
       <c r="C14">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>597</v>
       </c>
       <c r="C15">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="B16">
         <v>634</v>
       </c>
       <c r="C16">
-        <v>1474</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="B17">
         <v>491</v>
       </c>
       <c r="C17">
-        <v>1121</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>706</v>
       </c>
       <c r="C18">
-        <v>1206</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="B19">
         <v>478</v>
       </c>
       <c r="C19">
-        <v>1350</v>
+        <v>872</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B20">
         <v>562</v>
       </c>
       <c r="C20">
-        <v>1213</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>551</v>
       </c>
       <c r="C21">
-        <v>1057</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="B22">
         <v>868</v>
       </c>
       <c r="C22">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C23">
-        <f>SUM(C2:C22)</f>
-        <v>80539</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10512,7 +10670,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -10520,7 +10678,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -10528,7 +10686,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -10536,7 +10694,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -10544,7 +10702,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -10552,7 +10710,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -10560,7 +10718,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -10568,7 +10726,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -10576,7 +10734,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -10584,7 +10742,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -10592,7 +10750,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -10600,7 +10758,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -10608,7 +10766,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -10616,7 +10774,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10624,7 +10782,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10632,7 +10790,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -10640,7 +10798,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -10648,7 +10806,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -10656,7 +10814,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -10664,7 +10822,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>23</v>
@@ -10672,7 +10830,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -10697,7 +10855,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1">
         <v>0.2054</v>
@@ -10705,7 +10863,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>7.6899999999999996E-2</v>
@@ -10713,7 +10871,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>5.1999999999999998E-2</v>
@@ -10721,7 +10879,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>4.5499999999999999E-2</v>
@@ -10729,7 +10887,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>4.1200000000000001E-2</v>
@@ -10737,7 +10895,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>3.5099999999999999E-2</v>
@@ -10745,7 +10903,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>1.9E-2</v>
@@ -10753,7 +10911,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>1.89E-2</v>
@@ -10761,7 +10919,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>1.49E-2</v>
@@ -10769,7 +10927,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>1.4E-2</v>
@@ -10777,7 +10935,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>1.32E-2</v>
@@ -10785,7 +10943,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>1.0999999999999999E-2</v>
@@ -10793,7 +10951,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>8.0000000000000002E-3</v>
@@ -10801,7 +10959,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>5.4000000000000003E-3</v>
@@ -10809,7 +10967,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>2E-3</v>
@@ -10817,7 +10975,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>1.6000000000000001E-3</v>
@@ -10825,7 +10983,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>1.1000000000000001E-3</v>
@@ -10833,7 +10991,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B18" s="1">
         <v>5.0000000000000001E-4</v>
@@ -10841,7 +10999,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -10849,7 +11007,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -10857,7 +11015,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -10877,7 +11035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -10885,7 +11043,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -10893,7 +11051,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10901,7 +11059,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -10909,7 +11067,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10917,7 +11075,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -10925,7 +11083,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10933,7 +11091,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10958,7 +11116,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>13</v>
@@ -10966,7 +11124,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>70</v>
@@ -10974,7 +11132,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -10982,7 +11140,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -10990,7 +11148,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -10998,7 +11156,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -11006,7 +11164,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -11031,7 +11189,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>13</v>
@@ -11039,7 +11197,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>71</v>
@@ -11047,7 +11205,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -11055,7 +11213,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -11063,7 +11221,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -11071,7 +11229,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -11079,7 +11237,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -11108,578 +11266,578 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -11706,7 +11864,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1">
         <v>4.5999999999999999E-2</v>
@@ -11714,7 +11872,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1">
         <v>1.15E-2</v>
@@ -11722,7 +11880,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1">
         <v>5.7500000000000002E-2</v>
@@ -11730,7 +11888,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1">
         <v>0.26440000000000002</v>
@@ -11738,7 +11896,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1">
         <v>1.15E-2</v>
@@ -11746,7 +11904,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1">
         <v>1.15E-2</v>
@@ -11754,7 +11912,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B7" s="1">
         <v>4.5999999999999999E-2</v>
@@ -11762,7 +11920,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1">
         <v>1.15E-2</v>
@@ -11770,7 +11928,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1">
         <v>1.15E-2</v>
@@ -11778,7 +11936,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B10" s="1">
         <v>3.4500000000000003E-2</v>
@@ -11786,7 +11944,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B11" s="1">
         <v>1.15E-2</v>
@@ -11794,7 +11952,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1">
         <v>1.15E-2</v>
@@ -11802,7 +11960,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1">
         <v>6.9000000000000006E-2</v>
@@ -11810,7 +11968,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1">
         <v>1.15E-2</v>
@@ -11818,7 +11976,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1">
         <v>2.3E-2</v>
@@ -11826,7 +11984,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B16" s="1">
         <v>1.15E-2</v>
@@ -11834,7 +11992,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" s="1">
         <v>2.3E-2</v>
@@ -11842,7 +12000,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1">
         <v>6.9000000000000006E-2</v>
@@ -11850,7 +12008,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B19" s="1">
         <v>1.15E-2</v>
@@ -11858,7 +12016,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1">
         <v>6.9000000000000006E-2</v>
@@ -11866,7 +12024,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1">
         <v>2.3E-2</v>
@@ -11874,7 +12032,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" s="1">
         <v>4.5999999999999999E-2</v>
@@ -11882,7 +12040,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" s="1">
         <v>0.115</v>

--- a/study_of_fraudroid_in_major_markets.xlsx
+++ b/study_of_fraudroid_in_major_markets.xlsx
@@ -9,23 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1155" windowWidth="24960" windowHeight="13800" tabRatio="500"/>
+    <workbookView xWindow="1575" yWindow="1155" windowWidth="24960" windowHeight="13800" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ad-contained apps" sheetId="9" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="5" sheetId="5" r:id="rId3"/>
-    <sheet name="4" sheetId="4" r:id="rId4"/>
-    <sheet name="Ad Fraud Type" sheetId="3" r:id="rId5"/>
-    <sheet name="5.2 Ad Fraud Type" sheetId="8" r:id="rId6"/>
-    <sheet name="adnetwork" sheetId="6" r:id="rId7"/>
-    <sheet name="Distribution of ad network" sheetId="7" r:id="rId8"/>
+    <sheet name="ad fraud apps in stores" sheetId="2" r:id="rId2"/>
+    <sheet name="5" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Ad Fraud Type" sheetId="8" r:id="rId4"/>
+    <sheet name="adnetwork" sheetId="6" r:id="rId5"/>
+    <sheet name="Distribution of ad network" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="172">
   <si>
     <t>Baidu Application Market</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,22 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>non-interaciton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overlap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8073f14e9d304ead0c89a859626c4fae</t>
   </si>
   <si>
@@ -486,18 +468,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Waps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dianjin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaiduAd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anzhuan360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GooglePlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_free app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GooglePlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360 Mobile Assistant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetEase Application Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sina App Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jifeng Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App Treasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppKu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tvapk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anfone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anfen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PP Assistant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_contained app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InMobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnZhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiaomiAd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admogo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kugo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FineFocus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adwhirl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>yimob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XiaomiAd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vpon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mobile7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mediav</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,10 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kugo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>juzi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,111 +616,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InMobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Flurry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FineFocus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Domob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dianjin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaiduAd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anzhuan360</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adwhirl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnZhi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admogo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GooglePlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_free app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GooglePlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>360 Mobile Assistant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NetEase Application Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sina App Center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jifeng Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App Treasure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppKu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tvapk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anfone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM Market</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anfen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PP Assistant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_contained app</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1077,11 +1059,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1115800704"/>
-        <c:axId val="1115803968"/>
+        <c:axId val="1168183280"/>
+        <c:axId val="1168174032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1115800704"/>
+        <c:axId val="1168183280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1106,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115803968"/>
+        <c:crossAx val="1168174032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1132,7 +1114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1115803968"/>
+        <c:axId val="1168174032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1165,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1115800704"/>
+        <c:crossAx val="1168183280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1278,124 +1260,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Distribution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Ad</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>Fraud</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>in</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>Domestic</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>App</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>Market</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1411,69 +1280,131 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2'!$A$1:$A$20</c:f>
+              <c:f>'ad fraud apps in stores'!$A$1:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>Huli</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>tvapk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>anfone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Anfen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Liqu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>App Treasure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julur</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7BOX</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>UC Application Market</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>360 Mobile Assistant</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>Baidu Application Market</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>Sina App Center</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MUMAYI</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AppKu</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Haozhuo</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Jifeng Market</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>GooglePlay</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MM Market</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Baidu Mobile Assistant</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="19">
                   <c:v>NetEase Application Market</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sina App Center</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Jifeng Market</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Liqu</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>App Treasure</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MUMAYI</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>AppKu</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Julur</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Huli</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Haozhuo</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>tvapk</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>anfone</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7BOX</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>MM Market</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Anfen</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>UC Application Market</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>PP Assistant</c:v>
                 </c:pt>
               </c:strCache>
@@ -1481,27 +1412,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2'!$B$1:$B$20</c:f>
+              <c:f>'ad fraud apps in stores'!$B$1:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -1510,39 +1441,42 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
@@ -1550,25 +1484,25 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="912289952"/>
-        <c:axId val="912285056"/>
+        <c:axId val="1168182192"/>
+        <c:axId val="1168177840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="912289952"/>
+        <c:axId val="1168182192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1606,7 +1540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912285056"/>
+        <c:crossAx val="1168177840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1614,12 +1548,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="912285056"/>
+        <c:axId val="1168177840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1665,7 +1599,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912289952"/>
+        <c:crossAx val="1168182192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1811,6 +1745,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2008,11 +1943,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="912287232"/>
-        <c:axId val="912297024"/>
+        <c:axId val="1168176208"/>
+        <c:axId val="1168176752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="912287232"/>
+        <c:axId val="1168176208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,7 +1990,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912297024"/>
+        <c:crossAx val="1168176752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2063,7 +1998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="912297024"/>
+        <c:axId val="1168176752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,7 +2049,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912287232"/>
+        <c:crossAx val="1168176208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2252,6 +2187,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2341,6 +2277,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2512,11 +2449,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="912291584"/>
-        <c:axId val="912293216"/>
+        <c:axId val="1168183824"/>
+        <c:axId val="1168184368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="912291584"/>
+        <c:axId val="1168183824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,7 +2510,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912293216"/>
+        <c:crossAx val="1168184368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2581,7 +2518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="912293216"/>
+        <c:axId val="1168184368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,7 +2528,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="912291584"/>
+        <c:crossAx val="1168183824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2733,6 +2670,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2935,11 +2873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="912285600"/>
-        <c:axId val="912287776"/>
+        <c:axId val="1336395792"/>
+        <c:axId val="1336389808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="912285600"/>
+        <c:axId val="1336395792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2982,7 +2920,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912287776"/>
+        <c:crossAx val="1336389808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2990,7 +2928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="912287776"/>
+        <c:axId val="1336389808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +2979,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912285600"/>
+        <c:crossAx val="1336395792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3124,699 +3062,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Ad</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Fraud</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>in</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>GooglePlay</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'4'!$A$1:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>interaction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>non-interaciton</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pop-window</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hidden</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Size</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Overlap</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Number</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'4'!$B$1:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="1022171872"/>
-        <c:axId val="912288864"/>
-      </c:barChart>
-      <c:valAx>
-        <c:axId val="912288864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1022171872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1022171872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="912288864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Ad</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>Fraud</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>in</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>Native</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>App</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>Market</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" baseline="0"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ad Fraud Type'!$A$1:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>interaction</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>non-interaction</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Pop-window</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hidden</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Size</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Overlap</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Number</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ad Fraud Type'!$B$1:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="1022177312"/>
-        <c:axId val="1022183296"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1022177312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1022183296"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1022183296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1022177312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Distribution</a:t>
             </a:r>
@@ -3859,6 +3104,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3948,6 +3194,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3968,7 +3215,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'5.2 Ad Fraud Type'!$A$1:$A$7</c:f>
+              <c:f>'Ad Fraud Type'!$A$1:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3997,7 +3244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5.2 Ad Fraud Type'!$B$1:$B$7</c:f>
+              <c:f>'Ad Fraud Type'!$B$1:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4037,11 +3284,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1022172960"/>
-        <c:axId val="1022173504"/>
+        <c:axId val="1336387632"/>
+        <c:axId val="1336399600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1022172960"/>
+        <c:axId val="1336387632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4084,7 +3331,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1022173504"/>
+        <c:crossAx val="1336399600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4092,7 +3339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1022173504"/>
+        <c:axId val="1336399600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4143,7 +3390,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1022172960"/>
+        <c:crossAx val="1336387632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4192,7 +3439,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4238,49 +3485,50 @@
               <a:t>of</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>Ad</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>Fraud</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>fraud</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>in</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>Ad</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t>Network</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>networks</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4330,176 +3578,236 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Distribution of ad network'!$A$1:$A$23</c:f>
+              <c:f>[2]工作表7!$A$1:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>Waps</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Admob</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>InMobi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BaiduAd</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AnZhi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>XiaomiAd</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Youmi</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>yimob</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>XiaomiAd</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Waps</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>vpon</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ninebox</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Mobile7</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>mediav</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>lanjingke</c:v>
+                  <c:v>admogo</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>kugo</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>FineFocus</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dianjin</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>adwhirl</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>yimob</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>vpon</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ninebox</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>mediav</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>lanjingke</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>juzi</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>Jumptap</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>InMobi</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>Flurry</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>FineFocus</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
                   <c:v>Domob</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>Dianjin</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>BaiduAd</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>anzhuan360</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>AnZhi</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>adwhirl</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>admogo</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Admob</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Distribution of ad network'!$B$1:$B$23</c:f>
+              <c:f>[2]工作表7!$B$1:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7500000000000002E-2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26440000000000002</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4500000000000003E-2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.15E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.115</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1022178400"/>
-        <c:axId val="1022183840"/>
+        <c:gapWidth val="219"/>
+        <c:axId val="1429294400"/>
+        <c:axId val="1429296032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1022178400"/>
+        <c:axId val="1429294400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4542,7 +3850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1022183840"/>
+        <c:crossAx val="1429296032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4550,7 +3858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1022183840"/>
+        <c:axId val="1429296032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4570,7 +3878,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4601,7 +3909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1022178400"/>
+        <c:crossAx val="1429294400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4930,86 +4238,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -8524,1014 +7752,6 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9605,16 +7825,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>835025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9735,76 +7955,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>777875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>511175</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -9836,25 +7986,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>646545</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>591705</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>623454</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>424295</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10133,6 +8285,218 @@
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="工作表1"/>
+      <sheetName val="工作表2"/>
+      <sheetName val="工作表5"/>
+      <sheetName val="工作表4"/>
+      <sheetName val="工作表3"/>
+      <sheetName val="工作表8"/>
+      <sheetName val="工作表6"/>
+      <sheetName val="工作表7"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Waps</v>
+          </cell>
+          <cell r="B1">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Admob</v>
+          </cell>
+          <cell r="B2">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>InMobi</v>
+          </cell>
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>BaiduAd</v>
+          </cell>
+          <cell r="B4">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>AnZhi</v>
+          </cell>
+          <cell r="B5">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>XiaomiAd</v>
+          </cell>
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Youmi</v>
+          </cell>
+          <cell r="B7">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Mobile7</v>
+          </cell>
+          <cell r="B8">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>admogo</v>
+          </cell>
+          <cell r="B9">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>kugo</v>
+          </cell>
+          <cell r="B10">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>FineFocus</v>
+          </cell>
+          <cell r="B11">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Dianjin</v>
+          </cell>
+          <cell r="B12">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>adwhirl</v>
+          </cell>
+          <cell r="B13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>yimob</v>
+          </cell>
+          <cell r="B14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>vpon</v>
+          </cell>
+          <cell r="B15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>ninebox</v>
+          </cell>
+          <cell r="B16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>mediav</v>
+          </cell>
+          <cell r="B17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>lanjingke</v>
+          </cell>
+          <cell r="B18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>juzi</v>
+          </cell>
+          <cell r="B19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Jumptap</v>
+          </cell>
+          <cell r="B20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Flurry</v>
+          </cell>
+          <cell r="B21">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Domob</v>
+          </cell>
+          <cell r="B22">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>anzhuan360</v>
+          </cell>
+          <cell r="B23">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10403,7 +8767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -10414,15 +8778,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>9940</v>
@@ -10433,7 +8797,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B3">
         <v>3497</v>
@@ -10466,7 +8830,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>1156</v>
@@ -10477,7 +8841,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>2357</v>
@@ -10488,7 +8852,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B8">
         <v>596</v>
@@ -10510,7 +8874,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B10">
         <v>643</v>
@@ -10532,7 +8896,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B12">
         <v>588</v>
@@ -10554,7 +8918,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B14">
         <v>871</v>
@@ -10576,7 +8940,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B16">
         <v>634</v>
@@ -10587,7 +8951,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B17">
         <v>491</v>
@@ -10609,7 +8973,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B19">
         <v>478</v>
@@ -10620,7 +8984,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B20">
         <v>562</v>
@@ -10642,7 +9006,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B22">
         <v>868</v>
@@ -10663,62 +9027,62 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -10726,7 +9090,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -10734,15 +9098,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -10750,23 +9114,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -10774,69 +9138,72 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B21">
+    <sortCondition ref="B1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10991,7 +9358,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1">
         <v>5.0000000000000001E-4</v>
@@ -11036,7 +9403,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11046,15 +9413,15 @@
         <v>23</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -11062,7 +9429,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -11070,31 +9437,31 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11105,152 +9472,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
@@ -11266,578 +9487,578 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
         <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
         <v>63</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -11852,207 +10073,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>134</v>
+      </c>
+      <c r="B1">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.15E-2</v>
+        <v>139</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5.7500000000000002E-2</v>
+        <v>156</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.26440000000000002</v>
+        <v>137</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.15E-2</v>
+        <v>157</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.15E-2</v>
+        <v>158</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>133</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.15E-2</v>
+        <v>159</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.15E-2</v>
+        <v>160</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3.4500000000000003E-2</v>
+        <v>161</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.15E-2</v>
+        <v>162</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.15E-2</v>
+        <v>136</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6.9000000000000006E-2</v>
+        <v>163</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.15E-2</v>
+        <v>164</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2.3E-2</v>
+        <v>165</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.15E-2</v>
+        <v>166</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2.3E-2</v>
+        <v>167</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="1">
-        <v>6.9000000000000006E-2</v>
+        <v>168</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1.15E-2</v>
+        <v>169</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6.9000000000000006E-2</v>
+        <v>170</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2.3E-2</v>
+        <v>171</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>135</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.115</v>
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24">
         <f>SUM(B1:B23)</f>
-        <v>1.0004</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B24">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
